--- a/SCBAA/2020/Region 2.xlsx
+++ b/SCBAA/2020/Region 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6828D-4F13-40FD-B44F-4A44841F26A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB87F2-F7A2-4EBA-A90B-29D6729FD4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="1425" windowWidth="16020" windowHeight="12495" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuguegarao" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4441,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14384A89-C2A6-4D21-870C-45268DB3CA7C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,7 +4574,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="40">
-        <f>29678500.9-4387102.33+1223947.82+1205585.53+25250081.33</f>
         <v>52971013.25</v>
       </c>
     </row>
@@ -4590,7 +4596,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="40">
-        <f>450350+5138911.78+13350+9759006.33+59660+308377.3</f>
         <v>15729655.41</v>
       </c>
     </row>
@@ -4602,7 +4607,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>68700668.659999996</v>
       </c>
     </row>
@@ -4634,7 +4638,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="40">
-        <f>164971494.69+1452897.37+13168870+8329439.87155021+245970</f>
         <v>188168671.9315502</v>
       </c>
     </row>
@@ -4646,7 +4649,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="40">
-        <f>1063838.52+3695138.55+11237.84</f>
         <v>4770214.91</v>
       </c>
     </row>
@@ -4658,7 +4660,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>233988085.32155019</v>
       </c>
     </row>
@@ -4763,7 +4764,6 @@
         <v>38</v>
       </c>
       <c r="E29" s="40">
-        <f>138827378.6+116366267.27</f>
         <v>255193645.87</v>
       </c>
     </row>
@@ -4850,7 +4850,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2220538636.8515501</v>
       </c>
     </row>
@@ -4960,7 +4959,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="40">
-        <f>38449+1525615+9453725</f>
         <v>11017789</v>
       </c>
     </row>
@@ -5273,7 +5271,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="40">
-        <f>118542205.5-E79</f>
         <v>115294444.5</v>
       </c>
     </row>
@@ -5285,7 +5282,6 @@
         <v>50</v>
       </c>
       <c r="E79" s="40">
-        <f>2583636+664125</f>
         <v>3247761</v>
       </c>
     </row>
@@ -5317,7 +5313,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="40">
-        <f>261691482.62+10126693.7</f>
         <v>271818176.31999999</v>
       </c>
     </row>
@@ -5431,7 +5426,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1816786427.7899997</v>
       </c>
     </row>
@@ -5489,7 +5483,6 @@
         <v>12</v>
       </c>
       <c r="E98" s="40">
-        <f>523114.17+22100.52+114716.35</f>
         <v>659931.03999999992</v>
       </c>
     </row>
@@ -5607,7 +5600,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>68983727.140000001</v>
       </c>
     </row>
@@ -5619,7 +5611,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1885770154.9299998</v>
       </c>
     </row>
